--- a/RUDN/Importance/Varible_muatal_class_in_Middle Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Middle Africa.xlsx
@@ -14,221 +14,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
   <si>
     <t>Male population 10-14</t>
   </si>
   <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
   </si>
   <si>
     <t>Population, female</t>
   </si>
   <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Country_code</t>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 10, female, interpolated</t>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
     <t>Male population 00-04</t>
   </si>
   <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
@@ -244,10 +244,13 @@
     <t>Male population 75-79</t>
   </si>
   <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
+    <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 0, male, interpolated</t>
@@ -256,9 +259,6 @@
     <t>Female population 35-39</t>
   </si>
   <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 55-59</t>
   </si>
   <si>
@@ -346,84 +346,87 @@
     <t>Male population 40-44</t>
   </si>
   <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
     <t>Male population 35-39</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
   </si>
   <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
   </si>
   <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
     <t>Prevalence of undernourishment (% of population)</t>
   </si>
   <si>
@@ -433,7 +436,7 @@
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
+    <t>Children (0-14) living with HIV</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
@@ -442,9 +445,6 @@
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
@@ -493,51 +493,51 @@
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
@@ -547,315 +547,315 @@
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+    <t>School enrollment, primary (% net)</t>
   </si>
   <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
     <t>Progression to secondary school, female (%)</t>
   </si>
   <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
@@ -868,223 +868,220 @@
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
-    <t>Urban population growth (annual %)</t>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
     <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
+    <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
     <t>Status under enhanced HIPC initiative</t>
   </si>
   <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
   </si>
   <si>
     <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
     <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2338,7 +2335,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.176609655271978</v>
+        <v>1.175597145193533</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2346,7 +2343,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.175597145193533</v>
+        <v>1.172209964608551</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2354,7 +2351,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.172209964608551</v>
+        <v>1.164111835631301</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2362,7 +2359,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.164111835631301</v>
+        <v>1.162333816731433</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2386,7 +2383,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.155219506958753</v>
+        <v>1.155751402141248</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2394,7 +2391,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.154757301276767</v>
+        <v>1.155219506958753</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2402,7 +2399,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.149736497904315</v>
+        <v>1.150174680328263</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2410,7 +2407,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.14761711884213</v>
+        <v>1.149736497904315</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2418,7 +2415,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.145515841249768</v>
+        <v>1.149178844912772</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2450,7 +2447,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.13440909975499</v>
+        <v>1.133006006173823</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2458,7 +2455,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.133006006173823</v>
+        <v>1.131750119203651</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2466,7 +2463,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.131750119203651</v>
+        <v>1.128551054926693</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2474,7 +2471,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.130972554557329</v>
+        <v>1.121018390614779</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2482,7 +2479,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.128551054926693</v>
+        <v>1.120852683306215</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2490,7 +2487,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.121018390614779</v>
+        <v>1.119670959047567</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2498,7 +2495,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.120852683306215</v>
+        <v>1.118742095481341</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2506,7 +2503,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.118742095481341</v>
+        <v>1.118014428056191</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2514,7 +2511,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.118014428056191</v>
+        <v>1.116686840271614</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2522,7 +2519,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.109248810988056</v>
+        <v>1.115868954482146</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2530,7 +2527,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.107522538992874</v>
+        <v>1.113997237165054</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2546,7 +2543,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.096427702165951</v>
+        <v>1.10172657132296</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2554,7 +2551,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.094901650212324</v>
+        <v>1.100090705828955</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2562,7 +2559,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.09052824583892</v>
+        <v>1.094901650212324</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2570,7 +2567,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.088439065178311</v>
+        <v>1.078675812557915</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2578,7 +2575,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.074708107491309</v>
+        <v>1.073721363077133</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2586,7 +2583,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.07171692895068</v>
+        <v>1.07271989423936</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2594,7 +2591,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.056497685481938</v>
+        <v>1.07171692895068</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2730,7 +2727,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.9945054956952908</v>
+        <v>0.9969376073038472</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2738,7 +2735,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.9822855926518326</v>
+        <v>0.9925693366162744</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2746,7 +2743,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.9821174823942198</v>
+        <v>0.9784099611931629</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2754,7 +2751,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.9781047108879124</v>
+        <v>0.9772380807854137</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2762,7 +2759,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.9772380807854137</v>
+        <v>0.976741755129148</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2770,7 +2767,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.976741755129148</v>
+        <v>0.9702810327345641</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2778,7 +2775,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.9702810327345641</v>
+        <v>0.9664667017305106</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2786,7 +2783,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.9688550777371803</v>
+        <v>0.9634489714180166</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2794,7 +2791,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.9664667017305106</v>
+        <v>0.9576963951499262</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2802,7 +2799,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9576963951499262</v>
+        <v>0.9575676133728781</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2818,7 +2815,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.9563717504123093</v>
+        <v>0.9554525494334387</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2834,7 +2831,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.9554525494334387</v>
+        <v>0.9538894877715902</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2842,7 +2839,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.9538894877715902</v>
+        <v>0.9478673353208664</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2874,7 +2871,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.9319741669629145</v>
+        <v>0.9318703896535911</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2882,7 +2879,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.9318703896535911</v>
+        <v>0.9284320776821282</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2890,7 +2887,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.9284320776821282</v>
+        <v>0.9233039127114957</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2906,7 +2903,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.91622975600069</v>
+        <v>0.9174213032574576</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2914,7 +2911,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.9161610555686386</v>
+        <v>0.91622975600069</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2922,7 +2919,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.912662084841146</v>
+        <v>0.9137453215364371</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2930,7 +2927,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.9123571035273397</v>
+        <v>0.912662084841146</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2938,7 +2935,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.9078582472658301</v>
+        <v>0.9086506444085412</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2946,7 +2943,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.9036140143719114</v>
+        <v>0.9086305691687673</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2954,7 +2951,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.900685182918934</v>
+        <v>0.9028829851167361</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2962,7 +2959,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.8964238939729414</v>
+        <v>0.8959490121047911</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2994,7 +2991,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.8812969974527762</v>
+        <v>0.8788051363000231</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3002,7 +2999,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.8788051363000231</v>
+        <v>0.875996326080841</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3018,7 +3015,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.8706302866552467</v>
+        <v>0.8571520371879862</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3026,7 +3023,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.8537637587997078</v>
+        <v>0.8513922034261967</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3034,7 +3031,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.8513922034261967</v>
+        <v>0.8509794569850246</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3042,7 +3039,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.8509794569850246</v>
+        <v>0.8499775267167724</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3066,7 +3063,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.8385896231189249</v>
+        <v>0.8360274657886895</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3082,7 +3079,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.8360274657886895</v>
+        <v>0.8304369144015198</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3090,7 +3087,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.8304369144015198</v>
+        <v>0.8196505492340096</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3098,7 +3095,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.8196505492340096</v>
+        <v>0.8195670031743807</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3114,7 +3111,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.8081452339791657</v>
+        <v>0.8156670256025027</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3122,7 +3119,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.8067911975233784</v>
+        <v>0.8081452339791657</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3146,7 +3143,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.8039821324377732</v>
+        <v>0.7985046246082956</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3154,7 +3151,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.8038761464368513</v>
+        <v>0.7972430138781839</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3162,7 +3159,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.7985046246082956</v>
+        <v>0.79497367382184</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3170,7 +3167,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.7972430138781839</v>
+        <v>0.7947868382843257</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3178,7 +3175,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.7947868382843257</v>
+        <v>0.7922264210745873</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3186,7 +3183,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.7931421719903382</v>
+        <v>0.7905060763112559</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3194,7 +3191,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.7903949192430855</v>
+        <v>0.7898537443090465</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3218,7 +3215,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.7826878261853136</v>
+        <v>0.7837256772231644</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3226,7 +3223,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.781556722856408</v>
+        <v>0.7799248127251566</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3234,7 +3231,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.7801128579837509</v>
+        <v>0.7770082771583029</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3242,7 +3239,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.7794036080264726</v>
+        <v>0.7762897066003804</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3250,7 +3247,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.7770082771583029</v>
+        <v>0.7755840935321303</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3258,7 +3255,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.7764601710565593</v>
+        <v>0.7738316508429051</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3266,7 +3263,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.7762312840316279</v>
+        <v>0.7737858516567444</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3274,7 +3271,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.7758536652302734</v>
+        <v>0.7647933186862614</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3282,7 +3279,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.7755840935321303</v>
+        <v>0.7599849959615601</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3290,7 +3287,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.7747156585163752</v>
+        <v>0.7589361352632928</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3298,7 +3295,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.772704419395269</v>
+        <v>0.7480244496066033</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3306,7 +3303,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.7647933186862614</v>
+        <v>0.7470346977797475</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3314,7 +3311,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.7628106337806484</v>
+        <v>0.7467610629329269</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3322,7 +3319,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.748941419218075</v>
+        <v>0.7457711736773636</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3330,7 +3327,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.7470346977797475</v>
+        <v>0.7411114081559624</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3338,7 +3335,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.7467610629329269</v>
+        <v>0.7389828098979643</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3346,7 +3343,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.7457711736773636</v>
+        <v>0.7371008906546022</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3354,7 +3351,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.7420722940160402</v>
+        <v>0.7309939244590002</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3362,7 +3359,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.7411114081559624</v>
+        <v>0.7264665609892536</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3370,7 +3367,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.7389828098979643</v>
+        <v>0.7249335529924743</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3378,7 +3375,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.7309939244590002</v>
+        <v>0.7248743319652844</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3386,7 +3383,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.7264665609892536</v>
+        <v>0.7230105755068619</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3394,7 +3391,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.7249335529924743</v>
+        <v>0.7224767635697666</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3402,7 +3399,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.721344956600686</v>
+        <v>0.7223080130858903</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3410,7 +3407,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.7008295627062506</v>
+        <v>0.7199427122851627</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3418,7 +3415,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.6993107287083449</v>
+        <v>0.7184922325769456</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3426,7 +3423,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.69779966943052</v>
+        <v>0.716636823610189</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3434,7 +3431,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.6976524708202878</v>
+        <v>0.711674433379742</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3442,7 +3439,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.6959720783414185</v>
+        <v>0.7095272097015592</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3450,7 +3447,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.6926872761860432</v>
+        <v>0.7082984442894675</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3458,7 +3455,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.6905375542416419</v>
+        <v>0.7061994793672961</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3466,7 +3463,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.6895709689343974</v>
+        <v>0.69779966943052</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3474,7 +3471,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.6883496355354455</v>
+        <v>0.6959720783414185</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3482,7 +3479,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.6799669141720572</v>
+        <v>0.6933719066368556</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3490,7 +3487,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.6771613111863388</v>
+        <v>0.6926872761860432</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3498,7 +3495,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.6756598735869868</v>
+        <v>0.6895709689343974</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3506,7 +3503,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.6728227839367109</v>
+        <v>0.6799669141720572</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3514,7 +3511,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.6631039292405523</v>
+        <v>0.6728227839367109</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3522,7 +3519,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.6631039292405523</v>
+        <v>0.670033774067784</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3530,7 +3527,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.6598233975792966</v>
+        <v>0.6637714545348723</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3538,7 +3535,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.6573843434103412</v>
+        <v>0.6631039292405523</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3546,7 +3543,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.6567464993166774</v>
+        <v>0.6631039292405523</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3562,7 +3559,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.654057346077866</v>
+        <v>0.6557371798270772</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3570,7 +3567,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.6494658054775855</v>
+        <v>0.6542991017228563</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3578,7 +3575,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.6482038906572591</v>
+        <v>0.6520996808896879</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3586,7 +3583,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.647089557608026</v>
+        <v>0.6458294628499823</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3594,7 +3591,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.646490205002322</v>
+        <v>0.6446475551660238</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3610,7 +3607,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.6321327260323026</v>
+        <v>0.6391777507037657</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3618,7 +3615,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.6310192551157867</v>
+        <v>0.6362243006623975</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3626,7 +3623,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.6296877209757572</v>
+        <v>0.6360710606546061</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3634,7 +3631,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.6279888770101241</v>
+        <v>0.6321327260323026</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3642,7 +3639,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.6275680081874293</v>
+        <v>0.6310192551157867</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3650,7 +3647,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.6253724458222643</v>
+        <v>0.6296877209757572</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3658,7 +3655,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.6238409406496757</v>
+        <v>0.6279888770101241</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3666,7 +3663,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.6173185940524037</v>
+        <v>0.6272039476537663</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3674,7 +3671,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.6108876297423447</v>
+        <v>0.6122823888294118</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3682,7 +3679,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.6072148882204556</v>
+        <v>0.6064210362328841</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3690,7 +3687,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.6064210362328841</v>
+        <v>0.6050960375092533</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3730,7 +3727,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.5939528111037384</v>
+        <v>0.5881665399298071</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3738,7 +3735,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.5881665399298071</v>
+        <v>0.5816247189679538</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3746,7 +3743,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.5875044455559935</v>
+        <v>0.5785811125650402</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3754,7 +3751,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.5750690515820527</v>
+        <v>0.5782055009939759</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3762,7 +3759,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.5684973367977026</v>
+        <v>0.5685264845057758</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3770,7 +3767,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.568397811681661</v>
+        <v>0.5684973367977026</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3786,7 +3783,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.5576403070390366</v>
+        <v>0.5608515230788096</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3810,7 +3807,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.5506797199125011</v>
+        <v>0.5532615344005061</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3818,7 +3815,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.5499312775791638</v>
+        <v>0.5433251812054674</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3826,7 +3823,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.5433251812054674</v>
+        <v>0.5381518230294862</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3834,7 +3831,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.5306744208493199</v>
+        <v>0.5340519032846844</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3842,7 +3839,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.522298380369324</v>
+        <v>0.5306744208493199</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3850,7 +3847,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.5191045663077265</v>
+        <v>0.5194684611743363</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3866,7 +3863,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.515437494099817</v>
+        <v>0.5191045663077265</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3874,7 +3871,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.5101382420037082</v>
+        <v>0.5083116276060731</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3882,7 +3879,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.5096950021496973</v>
+        <v>0.5043673256275527</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3890,7 +3887,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.4939208431095272</v>
+        <v>0.5042046913965146</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3898,7 +3895,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.4907995046802238</v>
+        <v>0.5010682802812514</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3906,7 +3903,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.4887350022835928</v>
+        <v>0.4993126482772372</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3914,7 +3911,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.4853116788892482</v>
+        <v>0.4985691731812554</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3922,7 +3919,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.4785116870447306</v>
+        <v>0.4945705587145437</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3930,7 +3927,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.4736404023027245</v>
+        <v>0.4922677585279858</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3938,7 +3935,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.4722714079323997</v>
+        <v>0.4907995046802238</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3946,7 +3943,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.4716028324616846</v>
+        <v>0.4881149973406274</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3954,7 +3951,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.4691904272823757</v>
+        <v>0.4853116788892482</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3962,7 +3959,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.4655228167257952</v>
+        <v>0.4812867554373741</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -3970,7 +3967,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.4626507789375396</v>
+        <v>0.4723375797571745</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3978,7 +3975,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.453125718412847</v>
+        <v>0.4722714079323997</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3986,7 +3983,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.4455848932791624</v>
+        <v>0.4691904272823757</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3994,7 +3991,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.4441331718084396</v>
+        <v>0.4632654847092514</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4002,7 +3999,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.4391716688376315</v>
+        <v>0.4586793801271809</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4010,7 +4007,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.4378932863625913</v>
+        <v>0.4577430342153019</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4018,7 +4015,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.435157490256213</v>
+        <v>0.4455848932791624</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4026,7 +4023,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.4245812740129973</v>
+        <v>0.4378932863625913</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4034,7 +4031,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.4234632227975443</v>
+        <v>0.4371510569735702</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4042,7 +4039,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.4152577300017832</v>
+        <v>0.4247800602150873</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4050,7 +4047,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.409459661552362</v>
+        <v>0.4234632227975443</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4058,7 +4055,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.4090189579285075</v>
+        <v>0.4230932210584737</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4066,7 +4063,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.4067333207739647</v>
+        <v>0.4112775533193369</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4074,7 +4071,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.4037977404140047</v>
+        <v>0.4090189579285075</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4082,7 +4079,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.3983409391147872</v>
+        <v>0.4055864821557118</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4090,7 +4087,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.3871362908732872</v>
+        <v>0.4033142039128719</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4098,7 +4095,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.3864070409200346</v>
+        <v>0.3991214735896926</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4106,7 +4103,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.3864029427062998</v>
+        <v>0.3983409391147872</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4114,7 +4111,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.3732797697342993</v>
+        <v>0.3884183421553389</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4122,7 +4119,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.3629219618779849</v>
+        <v>0.3868538543223083</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4130,7 +4127,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.3604697063442939</v>
+        <v>0.3776593618958155</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4138,7 +4135,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.3489821145077772</v>
+        <v>0.3676225517443144</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4146,7 +4143,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.3486531511588178</v>
+        <v>0.3629219618779849</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4154,7 +4151,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.3437109471684121</v>
+        <v>0.3583405725381414</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4162,7 +4159,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.3397225169123836</v>
+        <v>0.3535324288264636</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4170,7 +4167,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.3349346406716953</v>
+        <v>0.3532885145321492</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4178,7 +4175,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.3345027325988845</v>
+        <v>0.3489821145077772</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4186,7 +4183,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.3336715987898309</v>
+        <v>0.3452410314725916</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4194,7 +4191,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.3333194806623578</v>
+        <v>0.3346425473595069</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4202,7 +4199,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.3292233929520194</v>
+        <v>0.3336715987898309</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4210,7 +4207,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.322946765652375</v>
+        <v>0.3306571567504151</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4218,7 +4215,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.320359590766121</v>
+        <v>0.3292233929520194</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4226,7 +4223,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.3075533772810837</v>
+        <v>0.3039541961454484</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4242,7 +4239,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.2726313733630712</v>
+        <v>0.2756481478270281</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4250,7 +4247,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.2678321845773566</v>
+        <v>0.252868946013469</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4258,7 +4255,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2387315495456959</v>
+        <v>0.2513460973737094</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4274,7 +4271,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.2224360199488149</v>
+        <v>0.2065802819942304</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4282,7 +4279,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.2065802819942304</v>
+        <v>0.1997974515323135</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4290,7 +4287,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.07533100860625241</v>
+        <v>0.04701599508184007</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4298,15 +4295,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.04433216214459135</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B358">
-        <v>0.008735761041631207</v>
+        <v>0.03961246480784197</v>
       </c>
     </row>
   </sheetData>
